--- a/Maps/map元データ/5Fmap.xlsx
+++ b/Maps/map元データ/5Fmap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gakuen_app\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gakuen_app\Maps\map元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,6 +111,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -155,6 +156,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -199,6 +201,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -243,6 +246,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -287,6 +291,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -375,6 +380,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -463,6 +469,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -509,6 +516,7 @@
             <a:gd name="adj1" fmla="val 72404"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -555,6 +563,7 @@
             <a:gd name="adj1" fmla="val 41904"/>
           </a:avLst>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -599,6 +608,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -643,6 +653,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -687,6 +698,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -731,6 +743,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -819,6 +832,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -863,6 +877,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -907,6 +922,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -951,6 +967,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1039,7 +1056,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1095,6 +1112,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1139,6 +1157,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1183,6 +1202,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1227,6 +1247,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1315,6 +1336,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1359,6 +1381,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1403,6 +1426,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1447,6 +1471,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1491,6 +1516,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1587,6 +1613,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1631,6 +1658,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1675,6 +1703,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1815,6 +1844,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -1859,6 +1889,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -2357,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="S72" sqref="S72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
